--- a/medicine/Handicap/Fédération_française_handisport/Fédération_française_handisport.xlsx
+++ b/medicine/Handicap/Fédération_française_handisport/Fédération_française_handisport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_handisport</t>
+          <t>Fédération_française_handisport</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fédération française handisport (FFH) est une association loi de 1901 chargée d'organiser, de promouvoir, de développer les activités physiques et sportives de compétition ou de loisir pour les personnes présentant une déficience motrice ou visuelle ou auditive. Elle est agréée par le ministère des Sports et a été reconnue d'utilité publique le 17 juin 1983.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_handisport</t>
+          <t>Fédération_française_handisport</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Association sportive des mutilés de France voit le jour le 7 mai 1954.
 En 1963, elle devient la Fédération sportive des handicapés physiques de France, puis en 1968 la Fédération française de sports pour handicapés physiques (FFSHP).
 En 1973, la Fédération devient membre du Comité national olympique et sportif français (CNOSF) et reçoit un an plus tard, en 1974, la délégation de pouvoir du ministère des Sports.
-Le 8 et 9 janvier 1977, la FFSHP fusionne avec la Fédération française omnisports pour handicapés physiques au cours d'une assemblée générale constitutive, pour former la Fédération française handisport. Le premier comité directeur élit Marcel Avronsart en tant que président[2].
+Le 8 et 9 janvier 1977, la FFSHP fusionne avec la Fédération française omnisports pour handicapés physiques au cours d'une assemblée générale constitutive, pour former la Fédération française handisport. Le premier comité directeur élit Marcel Avronsart en tant que président.
 En 1983, la FFH est reconnue d’utilité publique. La même année, elle organise les premiers Jeux européens des handicapés qui se déroule à Paris dans le Centre sportif Louis-Lumière (20e arrondissement) et voit concourir plus de 700 athlètes en provenance de 20 pays.
 La FFH organise en 1987 les Jeux internationaux de Paris et en 1990 les championnats du monde multisports à Saint-Étienne.
 La Résidence internationale de Paris est inaugurée en 1992 à Paris.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_handisport</t>
+          <t>Fédération_française_handisport</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle permet l'accès au sport, quel que soit son handicap.
 </t>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_handisport</t>
+          <t>Fédération_française_handisport</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fédération Française Handisport exerce la fonction de Comité national paralympique français[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fédération Française Handisport exerce la fonction de Comité national paralympique français
 </t>
         </is>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_handisport</t>
+          <t>Fédération_française_handisport</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les présidents de la FSHPF
 1963-1966: Philippe Berthe
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_handisport</t>
+          <t>Fédération_française_handisport</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,9 +676,11 @@
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2009, la FFH se dote d'un nouveau logo, mettant en avant le terme d'« Handisport ». Les lettres « FFH » sont stylisés et évoquent l’universalité et l’accessibilité grâce à leurs formes organiques et aux trois couleurs. Les lettres F verte et bleue représente respectivement l’espoir et l’appartenance nationale, tandis que le H rouge est un papillon qui symbolise la dynamique d’envol et la légèreté[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, la FFH se dote d'un nouveau logo, mettant en avant le terme d'« Handisport ». Les lettres « FFH » sont stylisés et évoquent l’universalité et l’accessibilité grâce à leurs formes organiques et aux trois couleurs. Les lettres F verte et bleue représente respectivement l’espoir et l’appartenance nationale, tandis que le H rouge est un papillon qui symbolise la dynamique d’envol et la légèreté.
 			Logo de la FFH de 1977 à 1992
 			Logo de la FFH de 1993 à 2009
 			Logo de la FFH depuis 2009
